--- a/00_서류 제출/레벨 디자인/[레벨]_스테이지디자인_챕터01_04_v0.01.xlsx
+++ b/00_서류 제출/레벨 디자인/[레벨]_스테이지디자인_챕터01_04_v0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\레벨 인수인계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3E192E-C5FC-48BE-A9E3-45A262A19297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5B56F5-CECD-40E8-84E7-724DF524FF1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="465" windowWidth="19380" windowHeight="14745" firstSheet="1" activeTab="5" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="7980" yWindow="465" windowWidth="19380" windowHeight="14745" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="히스토리" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="291">
   <si>
     <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,18 +121,6 @@
   </si>
   <si>
     <t>1구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.11.22.16:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤도균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1118,10 +1106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파란삐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1179,6 +1163,38 @@
   </si>
   <si>
     <t>보스 등장 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드보스 구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.11.27.14:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.11.30.17:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2956,9 +2972,6 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2991,6 +3004,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7643,8 +7659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0059DA-035E-47AE-945D-637AFEBF9D7A}">
   <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -7701,358 +7717,370 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="37" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1">
       <c r="B5" s="1">
         <f>SUBTOTAL(3, E$4:E5)</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1">
       <c r="B6" s="1">
         <f>SUBTOTAL(3, E$4:E6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1">
       <c r="B7" s="1">
         <f>SUBTOTAL(3, E$4:E7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="106"/>
     </row>
     <row r="8" spans="2:7" ht="19.5" customHeight="1">
       <c r="B8" s="1">
         <f>SUBTOTAL(3, E$4:E8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="106"/>
     </row>
     <row r="9" spans="2:7" ht="18.75" customHeight="1">
       <c r="B9" s="1">
         <f>SUBTOTAL(3, E$4:E9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="37"/>
     </row>
     <row r="10" spans="2:7" ht="18.75" customHeight="1">
       <c r="B10" s="1">
         <f>SUBTOTAL(3, E$4:E10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1">
       <c r="B11" s="1">
         <f>SUBTOTAL(3, E$4:E11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18.75" customHeight="1">
       <c r="B12" s="1">
         <f>SUBTOTAL(3, E$4:E12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="106"/>
     </row>
     <row r="13" spans="2:7" ht="18.75" customHeight="1">
       <c r="B13" s="1">
         <f>SUBTOTAL(3, E$4:E13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="106"/>
     </row>
     <row r="14" spans="2:7" ht="18.75" customHeight="1">
       <c r="B14" s="1">
         <f>SUBTOTAL(3, E$4:E14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="106"/>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1">
       <c r="B15" s="1">
         <f>SUBTOTAL(3, E$4:E15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="18.75" customHeight="1">
       <c r="B16" s="1">
         <f>SUBTOTAL(3, E$4:E16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="18.75" customHeight="1">
       <c r="B17" s="1">
         <f>SUBTOTAL(3, E$4:E17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="18.75" customHeight="1">
       <c r="B18" s="1">
         <f>SUBTOTAL(3, E$4:E18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="18.75" customHeight="1">
       <c r="B19" s="1">
         <f>SUBTOTAL(3, E$4:E19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="18.75" customHeight="1">
       <c r="B20" s="1">
         <f>SUBTOTAL(3, E$4:E20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="18.75" customHeight="1">
       <c r="B21" s="1">
         <f>SUBTOTAL(3, E$4:E21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="18.75" customHeight="1">
       <c r="B22" s="1">
         <f>SUBTOTAL(3, E$4:E22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="18.75" customHeight="1">
       <c r="B23" s="1">
         <f>SUBTOTAL(3, E$4:E23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="18.75" customHeight="1">
       <c r="B24" s="1">
         <f>SUBTOTAL(3, E$4:E24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="18.75" customHeight="1">
       <c r="B25" s="1">
         <f>SUBTOTAL(3, E$4:E25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="18.75" customHeight="1">
       <c r="B26" s="1">
         <f>SUBTOTAL(3, E$4:E26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="18.75" customHeight="1">
       <c r="B27" s="1">
         <f>SUBTOTAL(3, E$4:E27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="18.75" customHeight="1">
       <c r="B28" s="1">
         <f>SUBTOTAL(3, E$4:E28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="18.75" customHeight="1">
       <c r="B29" s="1">
         <f>SUBTOTAL(3, E$4:E29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="18.75" customHeight="1">
       <c r="B30" s="1">
         <f>SUBTOTAL(3, E$4:E30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="18.75" customHeight="1">
       <c r="B31" s="1">
         <f>SUBTOTAL(3, E$4:E31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="18.75" customHeight="1">
       <c r="B32" s="1">
         <f>SUBTOTAL(3, E$4:E32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="18.75" customHeight="1">
       <c r="B33" s="1">
         <f>SUBTOTAL(3, E$4:E33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="18.75" customHeight="1">
       <c r="B34" s="1">
         <f>SUBTOTAL(3, E$4:E34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18.75" customHeight="1">
       <c r="B35" s="1">
         <f>SUBTOTAL(3, E$4:E35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18.75" customHeight="1">
       <c r="B36" s="1">
         <f>SUBTOTAL(3, E$4:E36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="18.75" customHeight="1">
       <c r="B37" s="1">
         <f>SUBTOTAL(3, E$4:E37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="18.75" customHeight="1">
       <c r="B38" s="1">
         <f>SUBTOTAL(3, E$4:E38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="18.75" customHeight="1">
       <c r="B39" s="1">
         <f>SUBTOTAL(3, E$4:E39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="18.75" customHeight="1">
       <c r="B40" s="1">
         <f>SUBTOTAL(3, E$4:E40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="18.75" customHeight="1">
       <c r="B41" s="1">
         <f>SUBTOTAL(3, E$4:E41)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="18.75" customHeight="1">
       <c r="B42" s="1">
         <f>SUBTOTAL(3, E$4:E42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="18.75" customHeight="1">
       <c r="B43" s="1">
         <f>SUBTOTAL(3, E$4:E43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="18.75" customHeight="1">
       <c r="B44" s="1">
         <f>SUBTOTAL(3, E$4:E44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="18.75" customHeight="1">
       <c r="B45" s="1">
         <f>SUBTOTAL(3, E$4:E45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="18.75" customHeight="1">
       <c r="B46" s="1">
         <f>SUBTOTAL(3, E$4:E46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="18.75" customHeight="1">
       <c r="B47" s="1">
         <f>SUBTOTAL(3, E$4:E47)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="18.75" customHeight="1">
       <c r="B48" s="1">
         <f>SUBTOTAL(3, E$4:E48)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="18.75" customHeight="1">
       <c r="B49" s="1">
         <f>SUBTOTAL(3, E$4:E49)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="18.75" customHeight="1">
       <c r="B50" s="1">
         <f>SUBTOTAL(3, E$4:E50)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="18.75" customHeight="1">
       <c r="B51" s="1">
         <f>SUBTOTAL(3, E$4:E51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="18.75" customHeight="1">
       <c r="B52" s="1">
         <f>SUBTOTAL(3, E$4:E52)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="18.75" customHeight="1">
       <c r="B53" s="1">
         <f>SUBTOTAL(3, E$4:E53)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="18.75" customHeight="1">
       <c r="B54" s="1">
         <f>SUBTOTAL(3, E$4:E54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="18.75" customHeight="1">
       <c r="B55" s="1">
         <f>SUBTOTAL(3, E$4:E55)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="18.75" customHeight="1">
       <c r="B56" s="1">
         <f>SUBTOTAL(3, E$4:E56)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="18.75" customHeight="1">
       <c r="B57" s="1">
         <f>SUBTOTAL(3, E$4:E57)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="18.75" customHeight="1">
       <c r="B58" s="1">
         <f>SUBTOTAL(3, E$4:E58)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="18.75" customHeight="1">
       <c r="B59" s="1">
         <f>SUBTOTAL(3, E$4:E59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8092,46 +8120,46 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24.6" customHeight="1" thickBot="1">
       <c r="A1" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="I1" s="136" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="136" t="s">
-        <v>37</v>
       </c>
       <c r="J1" s="137"/>
       <c r="K1" s="137"/>
       <c r="L1" s="138"/>
       <c r="M1" s="44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R1" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="24.6" customHeight="1" thickBot="1">
@@ -8139,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="140"/>
       <c r="D2" s="141"/>
@@ -8153,13 +8181,13 @@
       <c r="L2" s="144"/>
       <c r="M2" s="49"/>
       <c r="P2" s="50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
@@ -8173,7 +8201,7 @@
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
       <c r="H3" s="53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I3" s="55"/>
       <c r="J3" s="56"/>
@@ -8181,13 +8209,13 @@
       <c r="L3" s="57"/>
       <c r="M3" s="58"/>
       <c r="P3" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R3" s="51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
@@ -8202,7 +8230,7 @@
       <c r="G4" s="61"/>
       <c r="H4" s="62"/>
       <c r="I4" s="145" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4" s="146"/>
       <c r="K4" s="146"/>
@@ -8217,37 +8245,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="63"/>
       <c r="G5" s="63"/>
       <c r="H5" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="148" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J5" s="149"/>
       <c r="K5" s="149"/>
       <c r="L5" s="150"/>
       <c r="M5" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="67" t="s">
         <v>54</v>
-      </c>
-      <c r="P5" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="67" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="37.15" customHeight="1" thickBot="1">
@@ -8255,35 +8283,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I6" s="151" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="152"/>
       <c r="K6" s="152"/>
       <c r="L6" s="153"/>
       <c r="M6" s="70" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="51"/>
       <c r="R6" s="51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="37.15" customHeight="1" thickBot="1">
@@ -8291,33 +8319,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" s="151" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="153"/>
       <c r="M7" s="72"/>
       <c r="P7" s="73" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="51"/>
       <c r="R7" s="51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="37.15" customHeight="1" thickBot="1">
@@ -8325,22 +8353,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="151" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J8" s="152"/>
       <c r="K8" s="152"/>
@@ -8355,29 +8383,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
       <c r="H9" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" s="151" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="153"/>
       <c r="M9" s="72"/>
       <c r="R9" s="76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="37.15" customHeight="1" thickBot="1">
@@ -8385,29 +8413,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="68"/>
       <c r="G10" s="68"/>
       <c r="H10" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" s="151" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J10" s="152"/>
       <c r="K10" s="152"/>
       <c r="L10" s="153"/>
       <c r="M10" s="72"/>
       <c r="R10" s="76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="37.15" customHeight="1" thickBot="1">
@@ -8415,24 +8443,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="68"/>
       <c r="G11" s="68"/>
       <c r="H11" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" s="151" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J11" s="152"/>
       <c r="K11" s="152"/>
@@ -8444,22 +8472,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
       <c r="H12" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" s="151" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J12" s="152"/>
       <c r="K12" s="152"/>
@@ -8471,22 +8499,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I13" s="151" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J13" s="152"/>
       <c r="K13" s="152"/>
@@ -8498,24 +8526,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
       <c r="H14" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I14" s="151" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J14" s="152"/>
       <c r="K14" s="152"/>
@@ -8527,22 +8555,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
       <c r="H15" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I15" s="151" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J15" s="152"/>
       <c r="K15" s="152"/>
@@ -8554,22 +8582,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
       <c r="H16" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I16" s="151" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J16" s="152"/>
       <c r="K16" s="152"/>
@@ -8581,22 +8609,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
       <c r="H17" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I17" s="151" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J17" s="152"/>
       <c r="K17" s="152"/>
@@ -8608,24 +8636,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
       <c r="H18" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J18" s="152"/>
       <c r="K18" s="152"/>
@@ -8637,24 +8665,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
       <c r="H19" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I19" s="151" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J19" s="152"/>
       <c r="K19" s="152"/>
@@ -8666,24 +8694,24 @@
         <v>19</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
       <c r="H20" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I20" s="151" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J20" s="152"/>
       <c r="K20" s="152"/>
@@ -8695,22 +8723,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
       <c r="H21" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I21" s="151" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J21" s="152"/>
       <c r="K21" s="152"/>
@@ -8722,24 +8750,24 @@
         <v>21</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F22" s="68"/>
       <c r="G22" s="68"/>
       <c r="H22" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I22" s="151" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J22" s="152"/>
       <c r="K22" s="152"/>
@@ -8751,24 +8779,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
       <c r="H23" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I23" s="151" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J23" s="152"/>
       <c r="K23" s="152"/>
@@ -8780,22 +8808,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="68"/>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
       <c r="H24" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I24" s="151" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J24" s="152"/>
       <c r="K24" s="152"/>
@@ -8813,10 +8841,10 @@
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I25" s="154" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J25" s="155"/>
       <c r="K25" s="155"/>
@@ -8828,7 +8856,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="157" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" s="158"/>
       <c r="D26" s="159"/>
@@ -8853,7 +8881,7 @@
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I27" s="154"/>
       <c r="J27" s="155"/>
@@ -8866,20 +8894,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="68"/>
       <c r="F28" s="68"/>
       <c r="G28" s="68"/>
       <c r="H28" s="68"/>
       <c r="I28" s="151" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J28" s="152"/>
       <c r="K28" s="152"/>
@@ -8891,22 +8919,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="68"/>
       <c r="F29" s="68"/>
       <c r="G29" s="68"/>
       <c r="H29" s="68" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I29" s="151" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J29" s="152"/>
       <c r="K29" s="152"/>
@@ -8918,22 +8946,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E30" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F30" s="79"/>
       <c r="G30" s="79"/>
       <c r="H30" s="79"/>
       <c r="I30" s="160" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J30" s="161"/>
       <c r="K30" s="161"/>
@@ -8945,22 +8973,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E31" s="79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="79"/>
       <c r="H31" s="79"/>
       <c r="I31" s="160" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J31" s="161"/>
       <c r="K31" s="161"/>
@@ -8972,22 +9000,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E32" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F32" s="79"/>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="160" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J32" s="161"/>
       <c r="K32" s="161"/>
@@ -9001,14 +9029,14 @@
       <c r="B33" s="80"/>
       <c r="C33" s="80"/>
       <c r="D33" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E33" s="80"/>
       <c r="F33" s="80"/>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
       <c r="I33" s="163" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J33" s="164"/>
       <c r="K33" s="164"/>
@@ -9020,22 +9048,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
       <c r="I34" s="172" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J34" s="173"/>
       <c r="K34" s="173"/>
@@ -9047,24 +9075,24 @@
         <v>34</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F35" s="79"/>
       <c r="G35" s="79"/>
       <c r="H35" s="79" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I35" s="160" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J35" s="161"/>
       <c r="K35" s="161"/>
@@ -9078,14 +9106,14 @@
       <c r="B36" s="80"/>
       <c r="C36" s="80"/>
       <c r="D36" s="80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E36" s="80"/>
       <c r="F36" s="80"/>
       <c r="G36" s="80"/>
       <c r="H36" s="80"/>
       <c r="I36" s="163" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J36" s="164"/>
       <c r="K36" s="164"/>
@@ -9097,22 +9125,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E37" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F37" s="79"/>
       <c r="G37" s="79"/>
       <c r="H37" s="79"/>
       <c r="I37" s="160" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J37" s="161"/>
       <c r="K37" s="161"/>
@@ -9124,22 +9152,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F38" s="82"/>
       <c r="G38" s="82"/>
       <c r="H38" s="82"/>
       <c r="I38" s="166" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J38" s="167"/>
       <c r="K38" s="167"/>
@@ -9151,22 +9179,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E39" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
       <c r="H39" s="83"/>
       <c r="I39" s="169" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J39" s="170"/>
       <c r="K39" s="170"/>
@@ -9178,20 +9206,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
       <c r="H40" s="83"/>
       <c r="I40" s="169" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J40" s="170"/>
       <c r="K40" s="170"/>
@@ -9203,22 +9231,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E41" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F41" s="83"/>
       <c r="G41" s="83"/>
       <c r="H41" s="83"/>
       <c r="I41" s="169" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J41" s="170"/>
       <c r="K41" s="170"/>
@@ -9230,28 +9258,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E42" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F42" s="79"/>
       <c r="G42" s="79"/>
       <c r="H42" s="79"/>
       <c r="I42" s="160" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J42" s="161"/>
       <c r="K42" s="161"/>
       <c r="L42" s="162"/>
       <c r="M42" s="72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="37.15" customHeight="1" thickBot="1">
@@ -9259,22 +9287,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C43" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E43" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F43" s="79"/>
       <c r="G43" s="79"/>
       <c r="H43" s="79"/>
       <c r="I43" s="160" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J43" s="161"/>
       <c r="K43" s="161"/>
@@ -9286,22 +9314,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E44" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F44" s="79"/>
       <c r="G44" s="79"/>
       <c r="H44" s="79"/>
       <c r="I44" s="160" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J44" s="161"/>
       <c r="K44" s="161"/>
@@ -9313,22 +9341,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F45" s="82"/>
       <c r="G45" s="82"/>
       <c r="H45" s="82"/>
       <c r="I45" s="166" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J45" s="167"/>
       <c r="K45" s="167"/>
@@ -9340,22 +9368,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E46" s="82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F46" s="82"/>
       <c r="G46" s="82"/>
       <c r="H46" s="82"/>
       <c r="I46" s="166" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J46" s="167"/>
       <c r="K46" s="167"/>
@@ -9367,18 +9395,18 @@
         <v>46</v>
       </c>
       <c r="B47" s="84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C47" s="84"/>
       <c r="D47" s="84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E47" s="84"/>
       <c r="F47" s="84"/>
       <c r="G47" s="84"/>
       <c r="H47" s="84"/>
       <c r="I47" s="175" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J47" s="176"/>
       <c r="K47" s="176"/>
@@ -9390,26 +9418,26 @@
         <v>47</v>
       </c>
       <c r="B48" s="82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E48" s="82"/>
       <c r="F48" s="82"/>
       <c r="G48" s="82"/>
       <c r="H48" s="82"/>
       <c r="I48" s="166" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J48" s="167"/>
       <c r="K48" s="167"/>
       <c r="L48" s="168"/>
       <c r="M48" s="72" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="37.15" customHeight="1" thickBot="1">
@@ -9417,26 +9445,26 @@
         <v>48</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E49" s="82"/>
       <c r="F49" s="82"/>
       <c r="G49" s="82"/>
       <c r="H49" s="82"/>
       <c r="I49" s="166" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J49" s="167"/>
       <c r="K49" s="167"/>
       <c r="L49" s="168"/>
       <c r="M49" s="85" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="37.15" customHeight="1" thickBot="1">
@@ -9444,26 +9472,26 @@
         <v>49</v>
       </c>
       <c r="B50" s="82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E50" s="82"/>
       <c r="F50" s="82"/>
       <c r="G50" s="82"/>
       <c r="H50" s="82"/>
       <c r="I50" s="166" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J50" s="167"/>
       <c r="K50" s="167"/>
       <c r="L50" s="168"/>
       <c r="M50" s="85" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="37.15" customHeight="1" thickBot="1">
@@ -9471,22 +9499,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E51" s="79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F51" s="79"/>
       <c r="G51" s="79"/>
       <c r="H51" s="79"/>
       <c r="I51" s="160" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J51" s="161"/>
       <c r="K51" s="161"/>
@@ -9498,22 +9526,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E52" s="79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F52" s="79"/>
       <c r="G52" s="79"/>
       <c r="H52" s="79"/>
       <c r="I52" s="160" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J52" s="161"/>
       <c r="K52" s="161"/>
@@ -9525,22 +9553,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C53" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E53" s="79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F53" s="79"/>
       <c r="G53" s="79"/>
       <c r="H53" s="79"/>
       <c r="I53" s="160" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J53" s="161"/>
       <c r="K53" s="161"/>
@@ -9552,22 +9580,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C54" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E54" s="79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F54" s="79"/>
       <c r="G54" s="79"/>
       <c r="H54" s="79"/>
       <c r="I54" s="160" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J54" s="161"/>
       <c r="K54" s="161"/>
@@ -9579,20 +9607,20 @@
         <v>54</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D55" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E55" s="84"/>
       <c r="F55" s="84"/>
       <c r="G55" s="84"/>
       <c r="H55" s="84"/>
       <c r="I55" s="175" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J55" s="176"/>
       <c r="K55" s="176"/>
@@ -9604,22 +9632,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F56" s="82"/>
       <c r="G56" s="82"/>
       <c r="H56" s="82"/>
       <c r="I56" s="166" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J56" s="167"/>
       <c r="K56" s="167"/>
@@ -9631,20 +9659,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C57" s="84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D57" s="84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E57" s="84"/>
       <c r="F57" s="84"/>
       <c r="G57" s="84"/>
       <c r="H57" s="84"/>
       <c r="I57" s="175" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J57" s="176"/>
       <c r="K57" s="176"/>
@@ -9656,20 +9684,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D58" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E58" s="84"/>
       <c r="F58" s="84"/>
       <c r="G58" s="84"/>
       <c r="H58" s="84"/>
       <c r="I58" s="175" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J58" s="176"/>
       <c r="K58" s="176"/>
@@ -9681,22 +9709,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D59" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E59" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F59" s="79"/>
       <c r="G59" s="79"/>
       <c r="H59" s="79"/>
       <c r="I59" s="160" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J59" s="161"/>
       <c r="K59" s="161"/>
@@ -9708,22 +9736,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C60" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E60" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F60" s="79"/>
       <c r="G60" s="79"/>
       <c r="H60" s="79"/>
       <c r="I60" s="160" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J60" s="161"/>
       <c r="K60" s="161"/>
@@ -9735,20 +9763,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E61" s="79"/>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
       <c r="H61" s="79"/>
       <c r="I61" s="160" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J61" s="161"/>
       <c r="K61" s="161"/>
@@ -9766,10 +9794,10 @@
       <c r="F62" s="77"/>
       <c r="G62" s="77"/>
       <c r="H62" s="77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I62" s="154" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J62" s="155"/>
       <c r="K62" s="155"/>
@@ -9781,22 +9809,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C63" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D63" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E63" s="79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F63" s="86"/>
       <c r="G63" s="86"/>
       <c r="H63" s="86"/>
       <c r="I63" s="178" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J63" s="179"/>
       <c r="K63" s="179"/>
@@ -9814,10 +9842,10 @@
       <c r="F64" s="77"/>
       <c r="G64" s="77"/>
       <c r="H64" s="77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I64" s="154" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J64" s="155"/>
       <c r="K64" s="155"/>
@@ -9829,7 +9857,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="181" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C65" s="170"/>
       <c r="D65" s="171"/>
@@ -9848,20 +9876,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C66" s="84"/>
       <c r="D66" s="84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E66" s="84"/>
       <c r="F66" s="84"/>
       <c r="G66" s="84"/>
       <c r="H66" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I66" s="175" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J66" s="176"/>
       <c r="K66" s="176"/>
@@ -9873,24 +9901,24 @@
         <v>66</v>
       </c>
       <c r="B67" s="79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C67" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D67" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E67" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F67" s="79"/>
       <c r="G67" s="79"/>
       <c r="H67" s="79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I67" s="160" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J67" s="161"/>
       <c r="K67" s="161"/>
@@ -9902,24 +9930,24 @@
         <v>67</v>
       </c>
       <c r="B68" s="81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D68" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E68" s="81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F68" s="81"/>
       <c r="G68" s="81"/>
       <c r="H68" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68" s="172" t="s">
         <v>155</v>
-      </c>
-      <c r="I68" s="172" t="s">
-        <v>158</v>
       </c>
       <c r="J68" s="173"/>
       <c r="K68" s="173"/>
@@ -9931,24 +9959,24 @@
         <v>68</v>
       </c>
       <c r="B69" s="79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C69" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D69" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E69" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
       <c r="H69" s="79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I69" s="160" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J69" s="161"/>
       <c r="K69" s="161"/>
@@ -9960,24 +9988,24 @@
         <v>69</v>
       </c>
       <c r="B70" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="79" t="s">
         <v>157</v>
-      </c>
-      <c r="C70" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="E70" s="79" t="s">
-        <v>160</v>
       </c>
       <c r="F70" s="79"/>
       <c r="G70" s="79"/>
       <c r="H70" s="79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I70" s="160" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J70" s="161"/>
       <c r="K70" s="161"/>
@@ -9991,14 +10019,14 @@
       <c r="B71" s="80"/>
       <c r="C71" s="80"/>
       <c r="D71" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E71" s="80"/>
       <c r="F71" s="80"/>
       <c r="G71" s="80"/>
       <c r="H71" s="80"/>
       <c r="I71" s="163" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J71" s="164"/>
       <c r="K71" s="164"/>
@@ -10010,22 +10038,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C72" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D72" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E72" s="79"/>
       <c r="F72" s="79"/>
       <c r="G72" s="79"/>
       <c r="H72" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I72" s="160" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J72" s="161"/>
       <c r="K72" s="161"/>
@@ -10037,28 +10065,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C73" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D73" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E73" s="79"/>
       <c r="F73" s="79"/>
       <c r="G73" s="79"/>
       <c r="H73" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I73" s="160" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J73" s="161"/>
       <c r="K73" s="161"/>
       <c r="L73" s="162"/>
       <c r="M73" s="72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="37.15" customHeight="1" thickBot="1">
@@ -10066,22 +10094,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C74" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D74" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E74" s="79"/>
       <c r="F74" s="79"/>
       <c r="G74" s="79"/>
       <c r="H74" s="79" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I74" s="160" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J74" s="161"/>
       <c r="K74" s="161"/>
@@ -10093,24 +10121,24 @@
         <v>74</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C75" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D75" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E75" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F75" s="79"/>
       <c r="G75" s="79"/>
       <c r="H75" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I75" s="160" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J75" s="161"/>
       <c r="K75" s="161"/>
@@ -10122,24 +10150,24 @@
         <v>75</v>
       </c>
       <c r="B76" s="81" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C76" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D76" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E76" s="81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F76" s="81"/>
       <c r="G76" s="81"/>
       <c r="H76" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I76" s="172" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J76" s="173"/>
       <c r="K76" s="173"/>
@@ -10151,20 +10179,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="84" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C77" s="84" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D77" s="84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E77" s="84"/>
       <c r="F77" s="84"/>
       <c r="G77" s="84"/>
       <c r="H77" s="84"/>
       <c r="I77" s="175" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J77" s="176"/>
       <c r="K77" s="176"/>
@@ -10176,24 +10204,24 @@
         <v>77</v>
       </c>
       <c r="B78" s="79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C78" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D78" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E78" s="79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
       <c r="H78" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I78" s="160" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J78" s="161"/>
       <c r="K78" s="161"/>
@@ -10205,24 +10233,24 @@
         <v>78</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C79" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D79" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E79" s="81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F79" s="81"/>
       <c r="G79" s="81"/>
       <c r="H79" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I79" s="172" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J79" s="173"/>
       <c r="K79" s="173"/>
@@ -10234,24 +10262,24 @@
         <v>79</v>
       </c>
       <c r="B80" s="81" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C80" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D80" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E80" s="81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F80" s="81"/>
       <c r="G80" s="81"/>
       <c r="H80" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I80" s="172" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J80" s="173"/>
       <c r="K80" s="173"/>
@@ -10265,14 +10293,14 @@
       <c r="B81" s="80"/>
       <c r="C81" s="80"/>
       <c r="D81" s="80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E81" s="80"/>
       <c r="F81" s="80"/>
       <c r="G81" s="80"/>
       <c r="H81" s="80"/>
       <c r="I81" s="163" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J81" s="164"/>
       <c r="K81" s="164"/>
@@ -10284,24 +10312,24 @@
         <v>81</v>
       </c>
       <c r="B82" s="79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C82" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E82" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F82" s="79"/>
       <c r="G82" s="79"/>
       <c r="H82" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I82" s="160" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J82" s="161"/>
       <c r="K82" s="161"/>
@@ -10313,24 +10341,24 @@
         <v>82</v>
       </c>
       <c r="B83" s="79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E83" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F83" s="79"/>
       <c r="G83" s="79"/>
       <c r="H83" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I83" s="160" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J83" s="161"/>
       <c r="K83" s="161"/>
@@ -10344,14 +10372,14 @@
       <c r="B84" s="80"/>
       <c r="C84" s="80"/>
       <c r="D84" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E84" s="80"/>
       <c r="F84" s="80"/>
       <c r="G84" s="80"/>
       <c r="H84" s="80"/>
       <c r="I84" s="163" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J84" s="164"/>
       <c r="K84" s="164"/>
@@ -10363,22 +10391,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="82" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C85" s="82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E85" s="82"/>
       <c r="F85" s="82"/>
       <c r="G85" s="82"/>
       <c r="H85" s="82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I85" s="166" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J85" s="167"/>
       <c r="K85" s="167"/>
@@ -10390,22 +10418,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D86" s="79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E86" s="79"/>
       <c r="F86" s="79"/>
       <c r="G86" s="79"/>
       <c r="H86" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I86" s="160" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J86" s="161"/>
       <c r="K86" s="161"/>
@@ -10417,24 +10445,24 @@
         <v>86</v>
       </c>
       <c r="B87" s="81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C87" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D87" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E87" s="81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F87" s="81"/>
       <c r="G87" s="81"/>
       <c r="H87" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I87" s="172" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J87" s="173"/>
       <c r="K87" s="173"/>
@@ -10446,22 +10474,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="68" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C88" s="68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D88" s="68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E88" s="68"/>
       <c r="F88" s="68"/>
       <c r="G88" s="68"/>
       <c r="H88" s="68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I88" s="151" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J88" s="152"/>
       <c r="K88" s="152"/>
@@ -10473,24 +10501,24 @@
         <v>88</v>
       </c>
       <c r="B89" s="79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C89" s="79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D89" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E89" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F89" s="79"/>
       <c r="G89" s="79"/>
       <c r="H89" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I89" s="160" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J89" s="161"/>
       <c r="K89" s="161"/>
@@ -10502,22 +10530,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C90" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D90" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E90" s="81"/>
       <c r="F90" s="81"/>
       <c r="G90" s="81"/>
       <c r="H90" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I90" s="172" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J90" s="173"/>
       <c r="K90" s="173"/>
@@ -10531,16 +10559,16 @@
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
       <c r="D91" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E91" s="80"/>
       <c r="F91" s="80"/>
       <c r="G91" s="80"/>
       <c r="H91" s="80" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I91" s="163" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J91" s="164"/>
       <c r="K91" s="164"/>
@@ -10552,22 +10580,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C92" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D92" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E92" s="81"/>
       <c r="F92" s="81"/>
       <c r="G92" s="81"/>
       <c r="H92" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I92" s="172" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J92" s="173"/>
       <c r="K92" s="173"/>
@@ -10579,7 +10607,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C93" s="84"/>
       <c r="D93" s="84"/>
@@ -10587,10 +10615,10 @@
       <c r="F93" s="84"/>
       <c r="G93" s="84"/>
       <c r="H93" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I93" s="175" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J93" s="176"/>
       <c r="K93" s="176"/>
@@ -10602,22 +10630,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C94" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D94" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E94" s="81"/>
       <c r="F94" s="81"/>
       <c r="G94" s="81"/>
       <c r="H94" s="81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I94" s="172" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J94" s="173"/>
       <c r="K94" s="173"/>
@@ -10629,24 +10657,24 @@
         <v>94</v>
       </c>
       <c r="B95" s="83" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C95" s="90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D95" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E95" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F95" s="79"/>
       <c r="G95" s="79"/>
       <c r="H95" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I95" s="160" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J95" s="161"/>
       <c r="K95" s="161"/>
@@ -10658,22 +10686,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C96" s="91" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D96" s="92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E96" s="92"/>
       <c r="F96" s="92"/>
       <c r="G96" s="92"/>
       <c r="H96" s="92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I96" s="182" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J96" s="183"/>
       <c r="K96" s="183"/>
@@ -10687,16 +10715,16 @@
       <c r="B97" s="80"/>
       <c r="C97" s="93"/>
       <c r="D97" s="93" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E97" s="93"/>
       <c r="F97" s="93"/>
       <c r="G97" s="93"/>
       <c r="H97" s="93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I97" s="163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J97" s="164"/>
       <c r="K97" s="164"/>
@@ -10714,7 +10742,7 @@
       <c r="F98" s="60"/>
       <c r="G98" s="60"/>
       <c r="H98" s="60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I98" s="185"/>
       <c r="J98" s="186"/>
@@ -10733,7 +10761,7 @@
       <c r="F99" s="60"/>
       <c r="G99" s="60"/>
       <c r="H99" s="60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I99" s="185"/>
       <c r="J99" s="186"/>
@@ -10746,7 +10774,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C100" s="68"/>
       <c r="D100" s="68"/>
@@ -10754,10 +10782,10 @@
       <c r="F100" s="68"/>
       <c r="G100" s="68"/>
       <c r="H100" s="68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I100" s="151" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J100" s="152"/>
       <c r="K100" s="152"/>
@@ -10769,24 +10797,24 @@
         <v>100</v>
       </c>
       <c r="B101" s="79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C101" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D101" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F101" s="79"/>
       <c r="G101" s="79"/>
       <c r="H101" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I101" s="160" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J101" s="161"/>
       <c r="K101" s="161"/>
@@ -10798,22 +10826,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C102" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D102" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E102" s="79"/>
       <c r="F102" s="79"/>
       <c r="G102" s="79"/>
       <c r="H102" s="79" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I102" s="160" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J102" s="161"/>
       <c r="K102" s="161"/>
@@ -10827,14 +10855,14 @@
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
       <c r="D103" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E103" s="80"/>
       <c r="F103" s="80"/>
       <c r="G103" s="80"/>
       <c r="H103" s="80"/>
       <c r="I103" s="163" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J103" s="164"/>
       <c r="K103" s="164"/>
@@ -10853,7 +10881,7 @@
       <c r="G104" s="79"/>
       <c r="H104" s="79"/>
       <c r="I104" s="160" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J104" s="161"/>
       <c r="K104" s="161"/>
@@ -10865,24 +10893,24 @@
         <v>104</v>
       </c>
       <c r="B105" s="79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C105" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D105" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E105" s="79" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" s="79"/>
       <c r="G105" s="79"/>
       <c r="H105" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I105" s="160" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J105" s="161"/>
       <c r="K105" s="161"/>
@@ -10894,22 +10922,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C106" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D106" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E106" s="79"/>
       <c r="F106" s="79"/>
       <c r="G106" s="79"/>
       <c r="H106" s="79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I106" s="160" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J106" s="161"/>
       <c r="K106" s="161"/>
@@ -10921,24 +10949,24 @@
         <v>106</v>
       </c>
       <c r="B107" s="79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C107" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D107" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E107" s="79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F107" s="79"/>
       <c r="G107" s="79"/>
       <c r="H107" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I107" s="160" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J107" s="161"/>
       <c r="K107" s="161"/>
@@ -10950,22 +10978,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C108" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D108" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E108" s="84"/>
       <c r="F108" s="84"/>
       <c r="G108" s="84"/>
       <c r="H108" s="84" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I108" s="175" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J108" s="176"/>
       <c r="K108" s="176"/>
@@ -10977,22 +11005,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C109" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D109" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E109" s="84"/>
       <c r="F109" s="84"/>
       <c r="G109" s="84"/>
       <c r="H109" s="84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I109" s="175" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J109" s="176"/>
       <c r="K109" s="176"/>
@@ -11004,24 +11032,24 @@
         <v>109</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C110" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D110" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E110" s="96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F110" s="86"/>
       <c r="G110" s="86"/>
       <c r="H110" s="86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I110" s="178" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J110" s="179"/>
       <c r="K110" s="179"/>
@@ -11033,22 +11061,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C111" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D111" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E111" s="84"/>
       <c r="F111" s="84"/>
       <c r="G111" s="84"/>
       <c r="H111" s="84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I111" s="175" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J111" s="176"/>
       <c r="K111" s="176"/>
@@ -11062,14 +11090,14 @@
       <c r="B112" s="80"/>
       <c r="C112" s="80"/>
       <c r="D112" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E112" s="80"/>
       <c r="F112" s="80"/>
       <c r="G112" s="80"/>
       <c r="H112" s="80"/>
       <c r="I112" s="163" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J112" s="164"/>
       <c r="K112" s="164"/>
@@ -11081,22 +11109,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C113" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D113" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E113" s="84"/>
       <c r="F113" s="84"/>
       <c r="G113" s="84"/>
       <c r="H113" s="84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I113" s="175" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J113" s="176"/>
       <c r="K113" s="176"/>
@@ -11108,22 +11136,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C114" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D114" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E114" s="84"/>
       <c r="F114" s="84"/>
       <c r="G114" s="84"/>
       <c r="H114" s="84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I114" s="175" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J114" s="176"/>
       <c r="K114" s="176"/>
@@ -11135,24 +11163,24 @@
         <v>114</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C115" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D115" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E115" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F115" s="79"/>
       <c r="G115" s="79"/>
       <c r="H115" s="79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I115" s="160" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J115" s="161"/>
       <c r="K115" s="161"/>
@@ -11164,22 +11192,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C116" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D116" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E116" s="84"/>
       <c r="F116" s="84"/>
       <c r="G116" s="84"/>
       <c r="H116" s="84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I116" s="175" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J116" s="176"/>
       <c r="K116" s="176"/>
@@ -11191,13 +11219,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C117" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D117" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E117" s="84" t="s">
         <v>11</v>
@@ -11205,10 +11233,10 @@
       <c r="F117" s="84"/>
       <c r="G117" s="84"/>
       <c r="H117" s="84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I117" s="175" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J117" s="176"/>
       <c r="K117" s="176"/>
@@ -11222,14 +11250,14 @@
       <c r="B118" s="80"/>
       <c r="C118" s="80"/>
       <c r="D118" s="80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E118" s="80"/>
       <c r="F118" s="80"/>
       <c r="G118" s="80"/>
       <c r="H118" s="80"/>
       <c r="I118" s="163" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J118" s="164"/>
       <c r="K118" s="164"/>
@@ -11241,28 +11269,28 @@
         <v>118</v>
       </c>
       <c r="B119" s="84" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C119" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D119" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E119" s="84"/>
       <c r="F119" s="84"/>
       <c r="G119" s="84"/>
       <c r="H119" s="84" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I119" s="175" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J119" s="176"/>
       <c r="K119" s="176"/>
       <c r="L119" s="177"/>
       <c r="M119" s="70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="50.45" customHeight="1" thickBot="1">
@@ -11270,22 +11298,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C120" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D120" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E120" s="84"/>
       <c r="F120" s="84"/>
       <c r="G120" s="84"/>
       <c r="H120" s="84" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I120" s="175" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J120" s="176"/>
       <c r="K120" s="176"/>
@@ -11297,20 +11325,20 @@
         <v>120</v>
       </c>
       <c r="B121" s="84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C121" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D121" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E121" s="84"/>
       <c r="F121" s="84"/>
       <c r="G121" s="84"/>
       <c r="H121" s="84"/>
       <c r="I121" s="175" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J121" s="176"/>
       <c r="K121" s="176"/>
@@ -11322,20 +11350,20 @@
         <v>121</v>
       </c>
       <c r="B122" s="84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C122" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D122" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E122" s="84"/>
       <c r="F122" s="84"/>
       <c r="G122" s="84"/>
       <c r="H122" s="84"/>
       <c r="I122" s="175" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J122" s="176"/>
       <c r="K122" s="176"/>
@@ -11347,24 +11375,24 @@
         <v>122</v>
       </c>
       <c r="B123" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C123" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D123" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E123" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F123" s="86"/>
       <c r="G123" s="86"/>
       <c r="H123" s="86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I123" s="178" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J123" s="179"/>
       <c r="K123" s="179"/>
@@ -11376,24 +11404,24 @@
         <v>123</v>
       </c>
       <c r="B124" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C124" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D124" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E124" s="86" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F124" s="86"/>
       <c r="G124" s="86"/>
       <c r="H124" s="86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I124" s="178" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J124" s="179"/>
       <c r="K124" s="179"/>
@@ -11405,24 +11433,24 @@
         <v>124</v>
       </c>
       <c r="B125" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C125" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D125" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E125" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F125" s="86"/>
       <c r="G125" s="86"/>
       <c r="H125" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="I125" s="188" t="s">
         <v>233</v>
-      </c>
-      <c r="I125" s="188" t="s">
-        <v>236</v>
       </c>
       <c r="J125" s="189"/>
       <c r="K125" s="189"/>
@@ -11434,24 +11462,24 @@
         <v>125</v>
       </c>
       <c r="B126" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C126" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D126" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E126" s="86" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F126" s="86"/>
       <c r="G126" s="86"/>
       <c r="H126" s="86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I126" s="178" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J126" s="179"/>
       <c r="K126" s="179"/>
@@ -11463,24 +11491,24 @@
         <v>126</v>
       </c>
       <c r="B127" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C127" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D127" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E127" s="86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F127" s="86"/>
       <c r="G127" s="86"/>
       <c r="H127" s="86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I127" s="178" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J127" s="179"/>
       <c r="K127" s="179"/>
@@ -11492,24 +11520,24 @@
         <v>127</v>
       </c>
       <c r="B128" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C128" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D128" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E128" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F128" s="86"/>
       <c r="G128" s="86"/>
       <c r="H128" s="86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I128" s="178" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J128" s="179"/>
       <c r="K128" s="179"/>
@@ -11521,24 +11549,24 @@
         <v>128</v>
       </c>
       <c r="B129" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C129" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D129" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E129" s="79" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F129" s="79"/>
       <c r="G129" s="79"/>
       <c r="H129" s="86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I129" s="178" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J129" s="179"/>
       <c r="K129" s="179"/>
@@ -11550,24 +11578,24 @@
         <v>129</v>
       </c>
       <c r="B130" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C130" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D130" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E130" s="79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F130" s="79"/>
       <c r="G130" s="79"/>
       <c r="H130" s="86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I130" s="160" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J130" s="161"/>
       <c r="K130" s="161"/>
@@ -11579,24 +11607,24 @@
         <v>130</v>
       </c>
       <c r="B131" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C131" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D131" s="86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E131" s="79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F131" s="79"/>
       <c r="G131" s="79"/>
       <c r="H131" s="79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I131" s="160" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J131" s="161"/>
       <c r="K131" s="161"/>
@@ -11608,24 +11636,24 @@
         <v>131</v>
       </c>
       <c r="B132" s="86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C132" s="86" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D132" s="86" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E132" s="79" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F132" s="79"/>
       <c r="G132" s="79"/>
       <c r="H132" s="86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I132" s="160" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J132" s="161"/>
       <c r="K132" s="161"/>
@@ -11637,22 +11665,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C133" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D133" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E133" s="84"/>
       <c r="F133" s="84"/>
       <c r="G133" s="84"/>
       <c r="H133" s="68" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I133" s="175" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J133" s="176"/>
       <c r="K133" s="176"/>
@@ -11669,13 +11697,13 @@
       <c r="E134" s="77"/>
       <c r="F134" s="77"/>
       <c r="G134" s="77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H134" s="77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I134" s="154" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J134" s="155"/>
       <c r="K134" s="155"/>
@@ -11693,10 +11721,10 @@
       <c r="F135" s="77"/>
       <c r="G135" s="77"/>
       <c r="H135" s="77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I135" s="154" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J135" s="155"/>
       <c r="K135" s="155"/>
@@ -11708,20 +11736,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C136" s="81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D136" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E136" s="81"/>
       <c r="F136" s="81"/>
       <c r="G136" s="81"/>
       <c r="H136" s="81"/>
       <c r="I136" s="172" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J136" s="173"/>
       <c r="K136" s="173"/>
@@ -11733,20 +11761,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C137" s="81" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D137" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E137" s="81"/>
       <c r="F137" s="81"/>
       <c r="G137" s="81"/>
       <c r="H137" s="81"/>
       <c r="I137" s="172" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J137" s="173"/>
       <c r="K137" s="173"/>
@@ -12094,7 +12122,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="48.75" customHeight="1">
       <c r="B2" s="39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12493,7 +12521,7 @@
       <c r="C5" s="105"/>
       <c r="D5" s="21"/>
       <c r="E5" s="220" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F5" s="220"/>
       <c r="G5" s="220"/>
@@ -12507,7 +12535,7 @@
       <c r="O5" s="108"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="222" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R5" s="223"/>
       <c r="S5" s="223"/>
@@ -12517,7 +12545,7 @@
       <c r="X5" s="109"/>
       <c r="Y5" s="109"/>
       <c r="AA5" s="222" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AB5" s="223"/>
       <c r="AC5" s="223"/>
@@ -12775,7 +12803,7 @@
       <c r="M9" s="217"/>
       <c r="N9" s="217"/>
       <c r="O9" s="200" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P9" s="201"/>
       <c r="Q9" s="201"/>
@@ -13996,7 +14024,7 @@
       <c r="C5" s="105"/>
       <c r="D5" s="21"/>
       <c r="E5" s="220" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F5" s="220"/>
       <c r="G5" s="220"/>
@@ -14009,7 +14037,7 @@
       <c r="N5" s="108"/>
       <c r="O5" s="108"/>
       <c r="Q5" s="222" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R5" s="223"/>
       <c r="S5" s="223"/>
@@ -14019,7 +14047,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
       <c r="AA5" s="222" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AB5" s="223"/>
       <c r="AC5" s="223"/>
@@ -14149,7 +14177,7 @@
       <c r="M9" s="217"/>
       <c r="N9" s="217"/>
       <c r="O9" s="200" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P9" s="201"/>
       <c r="Q9" s="201"/>
@@ -14329,7 +14357,7 @@
       <c r="AC17" s="215"/>
       <c r="AD17" s="215"/>
       <c r="BS17" s="215" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BT17" s="215"/>
       <c r="BU17" s="215"/>
@@ -17199,7 +17227,7 @@
     </row>
     <row r="67" spans="3:30" ht="24" customHeight="1">
       <c r="C67" s="194" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D67" s="195"/>
       <c r="E67" s="195"/>
@@ -17657,7 +17685,7 @@
     </row>
     <row r="93" spans="3:30" ht="24" customHeight="1">
       <c r="C93" s="194" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" s="195"/>
       <c r="E93" s="195"/>
@@ -18167,7 +18195,7 @@
     </row>
     <row r="119" spans="3:30" ht="24" customHeight="1">
       <c r="C119" s="194" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D119" s="195"/>
       <c r="E119" s="195"/>
@@ -18537,7 +18565,7 @@
     </row>
     <row r="143" spans="3:30" ht="24" customHeight="1">
       <c r="C143" s="194" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D143" s="195"/>
       <c r="E143" s="195"/>
@@ -19065,9 +19093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AE1E32-8D91-4DAF-9FCE-0827E7D8E6B4}">
   <dimension ref="A1:DZ298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CU98" sqref="CU98"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="24" customHeight="1"/>
@@ -19158,7 +19186,7 @@
       <c r="N2" s="132"/>
       <c r="O2" s="132"/>
       <c r="Q2" s="220" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R2" s="220"/>
       <c r="S2" s="220"/>
@@ -19394,7 +19422,7 @@
       <c r="C5" s="105"/>
       <c r="D5" s="21"/>
       <c r="E5" s="220" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F5" s="220"/>
       <c r="G5" s="220"/>
@@ -19408,7 +19436,7 @@
       <c r="O5" s="108"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="222" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R5" s="223"/>
       <c r="S5" s="223"/>
@@ -19418,7 +19446,7 @@
       <c r="X5" s="109"/>
       <c r="Y5" s="109"/>
       <c r="AA5" s="222" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AB5" s="223"/>
       <c r="AC5" s="223"/>
@@ -19676,7 +19704,7 @@
       <c r="M9" s="217"/>
       <c r="N9" s="217"/>
       <c r="O9" s="200" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P9" s="201"/>
       <c r="Q9" s="201"/>
@@ -19811,7 +19839,7 @@
       <c r="CW10" s="10"/>
     </row>
     <row r="11" spans="1:101" s="10" customFormat="1" ht="45" customHeight="1">
-      <c r="C11" s="234" t="s">
+      <c r="C11" s="233" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="228"/>
@@ -19824,25 +19852,25 @@
       <c r="K11" s="228"/>
       <c r="L11" s="228"/>
       <c r="M11" s="228"/>
-      <c r="N11" s="235"/>
-      <c r="O11" s="231" t="s">
+      <c r="N11" s="234"/>
+      <c r="O11" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="232"/>
-      <c r="Q11" s="232"/>
-      <c r="R11" s="232"/>
-      <c r="S11" s="232"/>
-      <c r="T11" s="232"/>
-      <c r="U11" s="232"/>
-      <c r="V11" s="232"/>
-      <c r="W11" s="232"/>
-      <c r="X11" s="232"/>
-      <c r="Y11" s="232"/>
-      <c r="Z11" s="232"/>
-      <c r="AA11" s="232"/>
-      <c r="AB11" s="232"/>
-      <c r="AC11" s="232"/>
-      <c r="AD11" s="233"/>
+      <c r="P11" s="231"/>
+      <c r="Q11" s="231"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="231"/>
+      <c r="T11" s="231"/>
+      <c r="U11" s="231"/>
+      <c r="V11" s="231"/>
+      <c r="W11" s="231"/>
+      <c r="X11" s="231"/>
+      <c r="Y11" s="231"/>
+      <c r="Z11" s="231"/>
+      <c r="AA11" s="231"/>
+      <c r="AB11" s="231"/>
+      <c r="AC11" s="231"/>
+      <c r="AD11" s="232"/>
       <c r="AE11" s="206" t="s">
         <v>19</v>
       </c>
@@ -19870,36 +19898,36 @@
       <c r="CH11" s="118"/>
     </row>
     <row r="12" spans="1:101" ht="45" customHeight="1">
-      <c r="C12" s="236"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="231" t="s">
-        <v>255</v>
-      </c>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="232"/>
-      <c r="V12" s="232"/>
-      <c r="W12" s="232"/>
-      <c r="X12" s="232"/>
-      <c r="Y12" s="232"/>
-      <c r="Z12" s="232"/>
-      <c r="AA12" s="232"/>
-      <c r="AB12" s="232"/>
-      <c r="AC12" s="232"/>
-      <c r="AD12" s="233"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="236"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="236"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="230" t="s">
+        <v>252</v>
+      </c>
+      <c r="P12" s="231"/>
+      <c r="Q12" s="231"/>
+      <c r="R12" s="231"/>
+      <c r="S12" s="231"/>
+      <c r="T12" s="231"/>
+      <c r="U12" s="231"/>
+      <c r="V12" s="231"/>
+      <c r="W12" s="231"/>
+      <c r="X12" s="231"/>
+      <c r="Y12" s="231"/>
+      <c r="Z12" s="231"/>
+      <c r="AA12" s="231"/>
+      <c r="AB12" s="231"/>
+      <c r="AC12" s="231"/>
+      <c r="AD12" s="232"/>
       <c r="AE12" s="206" t="s">
         <v>19</v>
       </c>
@@ -19927,36 +19955,36 @@
       <c r="CH12" s="118"/>
     </row>
     <row r="13" spans="1:101" ht="45" customHeight="1">
-      <c r="C13" s="236"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="238"/>
-      <c r="O13" s="231" t="s">
-        <v>256</v>
-      </c>
-      <c r="P13" s="232"/>
-      <c r="Q13" s="232"/>
-      <c r="R13" s="232"/>
-      <c r="S13" s="232"/>
-      <c r="T13" s="232"/>
-      <c r="U13" s="232"/>
-      <c r="V13" s="232"/>
-      <c r="W13" s="232"/>
-      <c r="X13" s="232"/>
-      <c r="Y13" s="232"/>
-      <c r="Z13" s="232"/>
-      <c r="AA13" s="232"/>
-      <c r="AB13" s="232"/>
-      <c r="AC13" s="232"/>
-      <c r="AD13" s="233"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="230" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="231"/>
+      <c r="Q13" s="231"/>
+      <c r="R13" s="231"/>
+      <c r="S13" s="231"/>
+      <c r="T13" s="231"/>
+      <c r="U13" s="231"/>
+      <c r="V13" s="231"/>
+      <c r="W13" s="231"/>
+      <c r="X13" s="231"/>
+      <c r="Y13" s="231"/>
+      <c r="Z13" s="231"/>
+      <c r="AA13" s="231"/>
+      <c r="AB13" s="231"/>
+      <c r="AC13" s="231"/>
+      <c r="AD13" s="232"/>
       <c r="AE13" s="206" t="s">
         <v>19</v>
       </c>
@@ -19984,36 +20012,36 @@
       <c r="CH13" s="118"/>
     </row>
     <row r="14" spans="1:101" ht="45" customHeight="1">
-      <c r="C14" s="236"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="238"/>
-      <c r="O14" s="231" t="s">
-        <v>260</v>
-      </c>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="232"/>
-      <c r="R14" s="232"/>
-      <c r="S14" s="232"/>
-      <c r="T14" s="232"/>
-      <c r="U14" s="232"/>
-      <c r="V14" s="232"/>
-      <c r="W14" s="232"/>
-      <c r="X14" s="232"/>
-      <c r="Y14" s="232"/>
-      <c r="Z14" s="232"/>
-      <c r="AA14" s="232"/>
-      <c r="AB14" s="232"/>
-      <c r="AC14" s="232"/>
-      <c r="AD14" s="233"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="236"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="236"/>
+      <c r="M14" s="236"/>
+      <c r="N14" s="237"/>
+      <c r="O14" s="230" t="s">
+        <v>257</v>
+      </c>
+      <c r="P14" s="231"/>
+      <c r="Q14" s="231"/>
+      <c r="R14" s="231"/>
+      <c r="S14" s="231"/>
+      <c r="T14" s="231"/>
+      <c r="U14" s="231"/>
+      <c r="V14" s="231"/>
+      <c r="W14" s="231"/>
+      <c r="X14" s="231"/>
+      <c r="Y14" s="231"/>
+      <c r="Z14" s="231"/>
+      <c r="AA14" s="231"/>
+      <c r="AB14" s="231"/>
+      <c r="AC14" s="231"/>
+      <c r="AD14" s="232"/>
       <c r="AE14" s="206" t="s">
         <v>19</v>
       </c>
@@ -20041,36 +20069,36 @@
       <c r="CH14" s="118"/>
     </row>
     <row r="15" spans="1:101" ht="45" customHeight="1">
-      <c r="C15" s="239"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="240"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="240"/>
-      <c r="M15" s="240"/>
-      <c r="N15" s="241"/>
-      <c r="O15" s="231" t="s">
-        <v>271</v>
-      </c>
-      <c r="P15" s="232"/>
-      <c r="Q15" s="232"/>
-      <c r="R15" s="232"/>
-      <c r="S15" s="232"/>
-      <c r="T15" s="232"/>
-      <c r="U15" s="232"/>
-      <c r="V15" s="232"/>
-      <c r="W15" s="232"/>
-      <c r="X15" s="232"/>
-      <c r="Y15" s="232"/>
-      <c r="Z15" s="232"/>
-      <c r="AA15" s="232"/>
-      <c r="AB15" s="232"/>
-      <c r="AC15" s="232"/>
-      <c r="AD15" s="233"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="239"/>
+      <c r="M15" s="239"/>
+      <c r="N15" s="240"/>
+      <c r="O15" s="230" t="s">
+        <v>283</v>
+      </c>
+      <c r="P15" s="231"/>
+      <c r="Q15" s="231"/>
+      <c r="R15" s="231"/>
+      <c r="S15" s="231"/>
+      <c r="T15" s="231"/>
+      <c r="U15" s="231"/>
+      <c r="V15" s="231"/>
+      <c r="W15" s="231"/>
+      <c r="X15" s="231"/>
+      <c r="Y15" s="231"/>
+      <c r="Z15" s="231"/>
+      <c r="AA15" s="231"/>
+      <c r="AB15" s="231"/>
+      <c r="AC15" s="231"/>
+      <c r="AD15" s="232"/>
       <c r="AE15" s="206" t="s">
         <v>19</v>
       </c>
@@ -20142,7 +20170,7 @@
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
       <c r="AX16" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="BS16" s="30"/>
       <c r="BT16" s="30"/>
@@ -20447,7 +20475,7 @@
     </row>
     <row r="22" spans="1:130" ht="24" customHeight="1">
       <c r="CY22" s="215" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="CZ22" s="215"/>
       <c r="DA22" s="215"/>
@@ -20960,7 +20988,7 @@
       <c r="AU30" s="118"/>
       <c r="AV30" s="129"/>
       <c r="BJ30" s="229" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="BK30" s="229"/>
       <c r="BL30" s="229"/>
@@ -20968,7 +20996,7 @@
       <c r="BN30" s="229"/>
       <c r="BO30" s="229"/>
       <c r="BX30" s="229" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="BY30" s="229"/>
       <c r="BZ30" s="229"/>
@@ -20989,7 +21017,7 @@
       <c r="F31" s="125"/>
       <c r="G31" s="125"/>
       <c r="AA31" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AB31" s="229"/>
       <c r="AC31" s="229"/>
@@ -21113,7 +21141,7 @@
       <c r="AE35" s="229"/>
       <c r="AF35" s="229"/>
       <c r="AK35" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL35" s="229"/>
       <c r="AM35" s="229"/>
@@ -21130,7 +21158,7 @@
       <c r="C36" s="117"/>
       <c r="D36" s="125"/>
       <c r="H36" s="229" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I36" s="229"/>
       <c r="J36" s="229"/>
@@ -21179,7 +21207,7 @@
       <c r="AU37" s="117"/>
       <c r="AV37" s="129"/>
       <c r="AY37" s="229" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AZ37" s="229"/>
       <c r="BA37" s="229"/>
@@ -21477,7 +21505,7 @@
       <c r="AU44" s="118"/>
       <c r="AV44" s="129"/>
       <c r="BL44" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BM44" s="229"/>
       <c r="BN44" s="229"/>
@@ -21485,7 +21513,7 @@
       <c r="BP44" s="229"/>
       <c r="BQ44" s="229"/>
       <c r="BZ44" s="229" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="CA44" s="229"/>
       <c r="CB44" s="229"/>
@@ -21542,7 +21570,7 @@
       <c r="N46" s="125"/>
       <c r="O46" s="125"/>
       <c r="Y46" s="229" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Z46" s="229"/>
       <c r="AA46" s="229"/>
@@ -22126,14 +22154,14 @@
     <row r="58" spans="3:88" ht="24" customHeight="1">
       <c r="C58" s="118"/>
       <c r="H58" s="229" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I58" s="229"/>
       <c r="J58" s="229"/>
       <c r="K58" s="229"/>
       <c r="L58" s="229"/>
       <c r="AH58" s="229" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AI58" s="229"/>
       <c r="AJ58" s="229"/>
@@ -22231,7 +22259,7 @@
       <c r="K61" s="229"/>
       <c r="L61" s="229"/>
       <c r="O61" s="229" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P61" s="229"/>
       <c r="Q61" s="229"/>
@@ -22253,7 +22281,7 @@
       <c r="AY61" s="120"/>
       <c r="AZ61" s="120"/>
       <c r="BH61" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BI61" s="229"/>
       <c r="BJ61" s="229"/>
@@ -22291,7 +22319,7 @@
       <c r="BK62" s="229"/>
       <c r="BL62" s="120"/>
       <c r="BY62" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BZ62" s="229"/>
       <c r="CA62" s="229"/>
@@ -22538,7 +22566,7 @@
       <c r="BJ69" s="125"/>
       <c r="BK69" s="125"/>
       <c r="BQ69" s="229" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="BR69" s="229"/>
       <c r="BS69" s="229"/>
@@ -22628,8 +22656,8 @@
     </row>
     <row r="72" spans="3:101" ht="24" customHeight="1">
       <c r="C72" s="118"/>
-      <c r="AF72" s="230" t="s">
-        <v>277</v>
+      <c r="AF72" s="241" t="s">
+        <v>273</v>
       </c>
       <c r="AG72" s="229"/>
       <c r="AH72" s="229"/>
@@ -22643,7 +22671,7 @@
       <c r="AU72" s="118"/>
       <c r="AV72" s="129"/>
       <c r="BB72" s="229" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BC72" s="229"/>
       <c r="BD72" s="229"/>
@@ -22755,7 +22783,7 @@
       <c r="CI75" s="125"/>
       <c r="CJ75" s="121"/>
       <c r="CW75" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="3:101" ht="24" customHeight="1">
@@ -22774,7 +22802,7 @@
       <c r="CI76" s="125"/>
       <c r="CJ76" s="121"/>
       <c r="CW76" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="3:101" ht="24" customHeight="1">
@@ -22785,7 +22813,7 @@
       <c r="AU77" s="117"/>
       <c r="AV77" s="129"/>
       <c r="CB77" s="229" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="CC77" s="229"/>
       <c r="CD77" s="229"/>
@@ -22793,14 +22821,14 @@
       <c r="CI77" s="125"/>
       <c r="CJ77" s="121"/>
       <c r="CW77" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="3:101" ht="24" customHeight="1">
       <c r="C78" s="117"/>
       <c r="D78" s="129"/>
-      <c r="U78" s="230" t="s">
-        <v>272</v>
+      <c r="U78" s="241" t="s">
+        <v>268</v>
       </c>
       <c r="V78" s="229"/>
       <c r="W78" s="229"/>
@@ -22817,7 +22845,7 @@
       <c r="CI78" s="125"/>
       <c r="CJ78" s="121"/>
       <c r="CW78" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="3:101" ht="24" customHeight="1">
@@ -22839,7 +22867,7 @@
       <c r="CI79" s="125"/>
       <c r="CJ79" s="121"/>
       <c r="CW79" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="3:101" ht="24" customHeight="1">
@@ -22856,7 +22884,7 @@
       <c r="AU80" s="117"/>
       <c r="AV80" s="129"/>
       <c r="BM80" s="229" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BN80" s="229"/>
       <c r="BO80" s="229"/>
@@ -22868,7 +22896,7 @@
       <c r="CI80" s="125"/>
       <c r="CJ80" s="121"/>
       <c r="CW80" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:101" ht="24" customHeight="1">
@@ -22889,7 +22917,7 @@
       <c r="CI81" s="125"/>
       <c r="CJ81" s="121"/>
       <c r="CW81" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:101" ht="24" customHeight="1">
@@ -22912,7 +22940,7 @@
       <c r="CI82" s="125"/>
       <c r="CJ82" s="121"/>
       <c r="CW82" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:101" ht="24" customHeight="1">
@@ -24618,7 +24646,7 @@
       <c r="AQ128" s="118"/>
       <c r="AR128" s="121"/>
       <c r="AZ128" s="242" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BA128" s="243"/>
       <c r="BB128" s="243"/>
@@ -24705,14 +24733,14 @@
     <row r="131" spans="3:65" ht="24" customHeight="1">
       <c r="C131" s="118"/>
       <c r="H131" s="229" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I131" s="229"/>
       <c r="J131" s="229"/>
       <c r="K131" s="229"/>
       <c r="L131" s="229"/>
       <c r="AH131" s="229" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AI131" s="229"/>
       <c r="AJ131" s="229"/>
@@ -24725,7 +24753,7 @@
       <c r="AQ131" s="125"/>
       <c r="AR131" s="121"/>
       <c r="AZ131" s="242" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BA131" s="243"/>
       <c r="BB131" s="243"/>
@@ -24801,7 +24829,7 @@
       <c r="K134" s="229"/>
       <c r="L134" s="229"/>
       <c r="O134" s="229" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P134" s="229"/>
       <c r="Q134" s="229"/>
@@ -24817,7 +24845,7 @@
       <c r="AQ134" s="125"/>
       <c r="AR134" s="121"/>
       <c r="AZ134" s="242" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BA134" s="243"/>
       <c r="BB134" s="243"/>
@@ -25022,8 +25050,8 @@
     </row>
     <row r="145" spans="3:44" ht="24" customHeight="1">
       <c r="C145" s="118"/>
-      <c r="AF145" s="230" t="s">
-        <v>277</v>
+      <c r="AF145" s="241" t="s">
+        <v>273</v>
       </c>
       <c r="AG145" s="229"/>
       <c r="AH145" s="229"/>
@@ -25091,8 +25119,8 @@
     <row r="151" spans="3:44" ht="24" customHeight="1">
       <c r="C151" s="117"/>
       <c r="D151" s="129"/>
-      <c r="U151" s="230" t="s">
-        <v>272</v>
+      <c r="U151" s="241" t="s">
+        <v>268</v>
       </c>
       <c r="V151" s="229"/>
       <c r="W151" s="229"/>
@@ -25195,7 +25223,7 @@
     </row>
     <row r="160" spans="3:44" ht="24" customHeight="1">
       <c r="C160" s="194" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D160" s="195"/>
       <c r="E160" s="195"/>
@@ -25299,7 +25327,7 @@
       <c r="AQ163" s="118"/>
       <c r="AR163" s="119"/>
       <c r="AZ163" s="242" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BA163" s="243"/>
       <c r="BB163" s="243"/>
@@ -25500,7 +25528,7 @@
       <c r="AQ169" s="129"/>
       <c r="AR169" s="119"/>
       <c r="AZ169" s="242" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BA169" s="243"/>
       <c r="BB169" s="243"/>
@@ -25546,7 +25574,7 @@
       <c r="F171" s="125"/>
       <c r="G171" s="125"/>
       <c r="AA171" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AB171" s="229"/>
       <c r="AC171" s="229"/>
@@ -25608,7 +25636,7 @@
       <c r="AE175" s="229"/>
       <c r="AF175" s="229"/>
       <c r="AK175" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL175" s="229"/>
       <c r="AM175" s="229"/>
@@ -25620,7 +25648,7 @@
       <c r="C176" s="117"/>
       <c r="D176" s="125"/>
       <c r="H176" s="229" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I176" s="229"/>
       <c r="J176" s="229"/>
@@ -25834,7 +25862,7 @@
       <c r="N186" s="125"/>
       <c r="O186" s="125"/>
       <c r="Y186" s="229" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Z186" s="229"/>
       <c r="AA186" s="229"/>
@@ -26022,7 +26050,7 @@
     </row>
     <row r="195" spans="3:65" ht="24" customHeight="1">
       <c r="C195" s="194" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D195" s="195"/>
       <c r="E195" s="195"/>
@@ -26126,7 +26154,7 @@
       <c r="AQ198" s="118"/>
       <c r="AR198" s="121"/>
       <c r="AZ198" s="242" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BA198" s="243"/>
       <c r="BB198" s="243"/>
@@ -26251,7 +26279,7 @@
       <c r="AQ201" s="125"/>
       <c r="AR201" s="121"/>
       <c r="AZ201" s="242" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BA201" s="243"/>
       <c r="BB201" s="243"/>
@@ -26314,7 +26342,7 @@
       <c r="G204" s="120"/>
       <c r="H204" s="120"/>
       <c r="P204" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q204" s="229"/>
       <c r="R204" s="229"/>
@@ -26338,7 +26366,7 @@
       <c r="S205" s="229"/>
       <c r="T205" s="120"/>
       <c r="AG205" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AH205" s="229"/>
       <c r="AI205" s="229"/>
@@ -26478,7 +26506,7 @@
       <c r="R212" s="125"/>
       <c r="S212" s="125"/>
       <c r="Y212" s="229" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Z212" s="229"/>
       <c r="AA212" s="229"/>
@@ -26538,7 +26566,7 @@
       <c r="C215" s="118"/>
       <c r="D215" s="129"/>
       <c r="J215" s="229" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K215" s="229"/>
       <c r="L215" s="229"/>
@@ -26631,7 +26659,7 @@
       <c r="C220" s="117"/>
       <c r="D220" s="129"/>
       <c r="AJ220" s="229" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AK220" s="229"/>
       <c r="AL220" s="229"/>
@@ -26663,7 +26691,7 @@
       <c r="C223" s="117"/>
       <c r="D223" s="129"/>
       <c r="U223" s="229" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="V223" s="229"/>
       <c r="W223" s="229"/>
@@ -26759,7 +26787,7 @@
     </row>
     <row r="230" spans="3:65" ht="24" customHeight="1">
       <c r="C230" s="194" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D230" s="195"/>
       <c r="E230" s="195"/>
@@ -26863,7 +26891,7 @@
       <c r="AQ233" s="118"/>
       <c r="AR233" s="119"/>
       <c r="AZ233" s="242" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="BA233" s="243"/>
       <c r="BB233" s="243"/>
@@ -27017,7 +27045,7 @@
       <c r="AQ236" s="125"/>
       <c r="AR236" s="119"/>
       <c r="AZ236" s="242" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BA236" s="243"/>
       <c r="BB236" s="243"/>
@@ -27094,7 +27122,7 @@
       <c r="AQ239" s="125"/>
       <c r="AR239" s="119"/>
       <c r="AZ239" s="242" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BA239" s="243"/>
       <c r="BB239" s="243"/>
@@ -27114,7 +27142,7 @@
       <c r="C240" s="118"/>
       <c r="D240" s="129"/>
       <c r="R240" s="229" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="S240" s="229"/>
       <c r="T240" s="229"/>
@@ -27122,7 +27150,7 @@
       <c r="V240" s="229"/>
       <c r="W240" s="229"/>
       <c r="AF240" s="229" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG240" s="229"/>
       <c r="AH240" s="229"/>
@@ -27238,7 +27266,7 @@
       <c r="C247" s="117"/>
       <c r="D247" s="129"/>
       <c r="G247" s="229" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H247" s="229"/>
       <c r="I247" s="229"/>
@@ -27413,7 +27441,7 @@
       <c r="C254" s="118"/>
       <c r="D254" s="129"/>
       <c r="T254" s="229" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U254" s="229"/>
       <c r="V254" s="229"/>
@@ -27421,7 +27449,7 @@
       <c r="X254" s="229"/>
       <c r="Y254" s="229"/>
       <c r="AH254" s="229" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AI254" s="229"/>
       <c r="AJ254" s="229"/>
@@ -27639,7 +27667,7 @@
     </row>
     <row r="265" spans="3:65" ht="24" customHeight="1">
       <c r="C265" s="194" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="D265" s="195"/>
       <c r="E265" s="195"/>
@@ -27743,7 +27771,7 @@
       <c r="AQ268" s="118"/>
       <c r="AR268" s="119"/>
       <c r="AZ268" s="242" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BA268" s="243"/>
       <c r="BB268" s="243"/>
@@ -27905,7 +27933,7 @@
       <c r="AQ271" s="125"/>
       <c r="AR271" s="119"/>
       <c r="AZ271" s="242" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BA271" s="243"/>
       <c r="BB271" s="243"/>
@@ -29125,7 +29153,6 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="AZ236:BM237"/>
     <mergeCell ref="AZ239:BM240"/>
     <mergeCell ref="C265:AD266"/>
     <mergeCell ref="AZ268:BM269"/>
@@ -29133,34 +29160,46 @@
     <mergeCell ref="G247:K251"/>
     <mergeCell ref="T254:Y258"/>
     <mergeCell ref="AH254:AJ256"/>
-    <mergeCell ref="C230:AD231"/>
+    <mergeCell ref="R240:W244"/>
+    <mergeCell ref="AF240:AJ243"/>
+    <mergeCell ref="P204:S207"/>
+    <mergeCell ref="AG205:AJ208"/>
+    <mergeCell ref="H131:L135"/>
+    <mergeCell ref="AH131:AK134"/>
+    <mergeCell ref="AZ236:BM237"/>
+    <mergeCell ref="AZ198:BM199"/>
+    <mergeCell ref="AZ201:BM202"/>
+    <mergeCell ref="AA171:AF176"/>
+    <mergeCell ref="AK175:AN178"/>
+    <mergeCell ref="H176:M181"/>
+    <mergeCell ref="Y186:AB189"/>
     <mergeCell ref="AZ128:BM129"/>
     <mergeCell ref="AZ131:BM132"/>
     <mergeCell ref="AZ134:BM135"/>
     <mergeCell ref="AZ163:BM164"/>
     <mergeCell ref="AZ169:BM170"/>
-    <mergeCell ref="AZ198:BM199"/>
-    <mergeCell ref="AZ201:BM202"/>
     <mergeCell ref="AZ233:BM234"/>
     <mergeCell ref="Y212:AB215"/>
     <mergeCell ref="J215:M218"/>
     <mergeCell ref="AJ220:AM223"/>
     <mergeCell ref="U223:X226"/>
-    <mergeCell ref="R240:W244"/>
-    <mergeCell ref="AF240:AJ243"/>
-    <mergeCell ref="AA171:AF176"/>
-    <mergeCell ref="AK175:AN178"/>
-    <mergeCell ref="H176:M181"/>
-    <mergeCell ref="Y186:AB189"/>
-    <mergeCell ref="P204:S207"/>
-    <mergeCell ref="AG205:AJ208"/>
-    <mergeCell ref="H131:L135"/>
-    <mergeCell ref="AH131:AK134"/>
+    <mergeCell ref="C230:AD231"/>
     <mergeCell ref="O134:R137"/>
     <mergeCell ref="AF145:AI148"/>
     <mergeCell ref="U151:Y155"/>
     <mergeCell ref="U78:Y82"/>
     <mergeCell ref="CY22:DZ24"/>
+    <mergeCell ref="AF72:AI75"/>
+    <mergeCell ref="BB72:BE75"/>
+    <mergeCell ref="BM80:BP83"/>
+    <mergeCell ref="CB77:CE80"/>
+    <mergeCell ref="BQ69:BT72"/>
+    <mergeCell ref="BY62:CB65"/>
+    <mergeCell ref="BH61:BK64"/>
+    <mergeCell ref="AH58:AK61"/>
+    <mergeCell ref="AY37:BC41"/>
+    <mergeCell ref="BJ30:BO34"/>
+    <mergeCell ref="BX30:CB33"/>
     <mergeCell ref="C160:AD161"/>
     <mergeCell ref="C195:AD196"/>
     <mergeCell ref="AM12:AP12"/>
@@ -29182,41 +29221,30 @@
     <mergeCell ref="AE12:AH12"/>
     <mergeCell ref="AI12:AL12"/>
     <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="O14:AD14"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="CP2:CT3"/>
+    <mergeCell ref="AL2:AP3"/>
+    <mergeCell ref="AU2:BB3"/>
+    <mergeCell ref="BH2:BL3"/>
+    <mergeCell ref="BR2:BW3"/>
+    <mergeCell ref="CD2:CJ3"/>
+    <mergeCell ref="AQ14:AT14"/>
     <mergeCell ref="O13:AD13"/>
     <mergeCell ref="AE13:AH13"/>
     <mergeCell ref="AI13:AL13"/>
     <mergeCell ref="AM13:AP13"/>
     <mergeCell ref="AQ13:AT13"/>
-    <mergeCell ref="O14:AD14"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="CP2:CT3"/>
     <mergeCell ref="C9:N10"/>
     <mergeCell ref="O9:AD10"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="Q2:U3"/>
     <mergeCell ref="AA2:AF3"/>
-    <mergeCell ref="AL2:AP3"/>
-    <mergeCell ref="AU2:BB3"/>
-    <mergeCell ref="BH2:BL3"/>
     <mergeCell ref="E5:I6"/>
     <mergeCell ref="Q5:U6"/>
-    <mergeCell ref="BR2:BW3"/>
-    <mergeCell ref="CD2:CJ3"/>
     <mergeCell ref="AA5:AE6"/>
-    <mergeCell ref="AQ14:AT14"/>
-    <mergeCell ref="AF72:AI75"/>
-    <mergeCell ref="BB72:BE75"/>
-    <mergeCell ref="BM80:BP83"/>
-    <mergeCell ref="CB77:CE80"/>
-    <mergeCell ref="BQ69:BT72"/>
-    <mergeCell ref="BY62:CB65"/>
-    <mergeCell ref="BH61:BK64"/>
-    <mergeCell ref="AH58:AK61"/>
-    <mergeCell ref="AY37:BC41"/>
-    <mergeCell ref="BJ30:BO34"/>
-    <mergeCell ref="BX30:CB33"/>
     <mergeCell ref="BZ44:CB46"/>
     <mergeCell ref="BL44:BQ48"/>
     <mergeCell ref="O61:R64"/>
